--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NodeJs\AUTO DM Instagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C528918-A6FB-4444-9D3C-1432CEE2762E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D38372D-D3D2-44D6-B457-4C9AF0F35383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="2925" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,28 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
   <si>
+    <t>pesan</t>
+  </si>
+  <si>
+    <t>aghsadsgh</t>
+  </si>
+  <si>
+    <t>sfadsf23</t>
+  </si>
+  <si>
+    <t>dhilaanrf</t>
+  </si>
+  <si>
+    <t>fembinurilham</t>
+  </si>
+  <si>
     <t>arihsb16_</t>
   </si>
   <si>
-    <t>pesan</t>
-  </si>
-  <si>
-    <t>autoinstagram</t>
-  </si>
-  <si>
-    <t>fembinurilham</t>
+    <t>ragaarie.sn</t>
+  </si>
+  <si>
+    <t>lucu.abis</t>
+  </si>
+  <si>
+    <t>Selamat malam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +71,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF262626"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -81,9 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,23 +407,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>123</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
